--- a/data/pca/factorExposure/factorExposure_2016-02-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-02-05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01150634174371126</v>
+        <v>-0.01581147278391161</v>
       </c>
       <c r="C2">
-        <v>-0.05090637433492855</v>
+        <v>0.04257534281367756</v>
       </c>
       <c r="D2">
-        <v>0.08676074393950935</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.1022006398292051</v>
+      </c>
+      <c r="E2">
+        <v>-0.115407019105448</v>
+      </c>
+      <c r="F2">
+        <v>-0.01535238607557445</v>
+      </c>
+      <c r="G2">
+        <v>0.03795596270029167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.02370358239528337</v>
+        <v>-0.01442083221559011</v>
       </c>
       <c r="C3">
-        <v>-0.09535644107954647</v>
+        <v>0.04651558462441246</v>
       </c>
       <c r="D3">
-        <v>0.1027129572161389</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.07436424393440243</v>
+      </c>
+      <c r="E3">
+        <v>-0.1059177564852601</v>
+      </c>
+      <c r="F3">
+        <v>0.04647578362177486</v>
+      </c>
+      <c r="G3">
+        <v>0.08305130997425296</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06225961706429358</v>
+        <v>-0.06232831108241112</v>
       </c>
       <c r="C4">
-        <v>-0.06867179925575785</v>
+        <v>0.06809469284177792</v>
       </c>
       <c r="D4">
-        <v>0.08947236067099387</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.1132373953477556</v>
+      </c>
+      <c r="E4">
+        <v>-0.08594756072961254</v>
+      </c>
+      <c r="F4">
+        <v>0.0331562108835395</v>
+      </c>
+      <c r="G4">
+        <v>-0.03372629238540847</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.04386397370591871</v>
+        <v>-0.04071827815312946</v>
       </c>
       <c r="C6">
-        <v>-0.04023091197093889</v>
+        <v>0.02937001956683352</v>
       </c>
       <c r="D6">
-        <v>0.08072102449451003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.1053055768197402</v>
+      </c>
+      <c r="E6">
+        <v>-0.07490484751330505</v>
+      </c>
+      <c r="F6">
+        <v>0.02153269349710902</v>
+      </c>
+      <c r="G6">
+        <v>0.004616112118875223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02875942943336467</v>
+        <v>-0.02147965575350698</v>
       </c>
       <c r="C7">
-        <v>-0.03893441012212233</v>
+        <v>0.03837036982198683</v>
       </c>
       <c r="D7">
-        <v>0.05688045382078626</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.07756556668511702</v>
+      </c>
+      <c r="E7">
+        <v>-0.06680853215489913</v>
+      </c>
+      <c r="F7">
+        <v>0.02268020853555013</v>
+      </c>
+      <c r="G7">
+        <v>-0.05348920433086738</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.007267724406228552</v>
+        <v>-0.006425394897897999</v>
       </c>
       <c r="C8">
-        <v>-0.04680142400517324</v>
+        <v>0.03968344902898542</v>
       </c>
       <c r="D8">
-        <v>0.05602900366946499</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.06855924476154633</v>
+      </c>
+      <c r="E8">
+        <v>-0.05225304402999158</v>
+      </c>
+      <c r="F8">
+        <v>0.0166301203011128</v>
+      </c>
+      <c r="G8">
+        <v>0.009836865937210585</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.04305274105187987</v>
+        <v>-0.04482697757127366</v>
       </c>
       <c r="C9">
-        <v>-0.05278765285471733</v>
+        <v>0.05752428949433147</v>
       </c>
       <c r="D9">
-        <v>0.07648928536069964</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.09839684249125913</v>
+      </c>
+      <c r="E9">
+        <v>-0.06630119035183135</v>
+      </c>
+      <c r="F9">
+        <v>0.009983133248839522</v>
+      </c>
+      <c r="G9">
+        <v>-0.03653777732181471</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.08909082309412697</v>
+        <v>-0.1147193836148937</v>
       </c>
       <c r="C10">
-        <v>0.1787393618511893</v>
+        <v>-0.1921548611086898</v>
       </c>
       <c r="D10">
-        <v>-0.00203020079597361</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01170302787029705</v>
+      </c>
+      <c r="E10">
+        <v>-0.05348773289186</v>
+      </c>
+      <c r="F10">
+        <v>0.01163119817246435</v>
+      </c>
+      <c r="G10">
+        <v>-0.03115087593540977</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04105613691874603</v>
+        <v>-0.03443424265332658</v>
       </c>
       <c r="C11">
-        <v>-0.05042402554827143</v>
+        <v>0.04655759566125785</v>
       </c>
       <c r="D11">
-        <v>0.04292816942859133</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.05072374114049218</v>
+      </c>
+      <c r="E11">
+        <v>-0.02948120973043033</v>
+      </c>
+      <c r="F11">
+        <v>0.01002321677389459</v>
+      </c>
+      <c r="G11">
+        <v>-0.04075986109151052</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04467199585029764</v>
+        <v>-0.03705013829755831</v>
       </c>
       <c r="C12">
-        <v>-0.04888422018738914</v>
+        <v>0.04656159797319935</v>
       </c>
       <c r="D12">
-        <v>0.02914263913380408</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.0454522420174464</v>
+      </c>
+      <c r="E12">
+        <v>-0.04119859615046541</v>
+      </c>
+      <c r="F12">
+        <v>0.003230026065331986</v>
+      </c>
+      <c r="G12">
+        <v>-0.03685857272087226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01672454984818022</v>
+        <v>-0.01766750079704052</v>
       </c>
       <c r="C13">
-        <v>-0.0523805310025872</v>
+        <v>0.04214158816425054</v>
       </c>
       <c r="D13">
-        <v>0.06588761404801668</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.1043349470438054</v>
+      </c>
+      <c r="E13">
+        <v>-0.1132880392750371</v>
+      </c>
+      <c r="F13">
+        <v>0.02900449513903807</v>
+      </c>
+      <c r="G13">
+        <v>-0.04490325863413826</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.01408018826931161</v>
+        <v>-0.008063551918938023</v>
       </c>
       <c r="C14">
-        <v>-0.03316127663050362</v>
+        <v>0.02887902682414487</v>
       </c>
       <c r="D14">
-        <v>0.03881000700624354</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.06350571640159859</v>
+      </c>
+      <c r="E14">
+        <v>-0.07344400090437456</v>
+      </c>
+      <c r="F14">
+        <v>-0.004398452995644</v>
+      </c>
+      <c r="G14">
+        <v>-0.03472205922632827</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.0005846809449933038</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.00651327208284669</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.0178026560825148</v>
+      </c>
+      <c r="E15">
+        <v>-0.008760311255088948</v>
+      </c>
+      <c r="F15">
+        <v>-0.001498140354235732</v>
+      </c>
+      <c r="G15">
+        <v>0.002879439459737766</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.04055806969944596</v>
+        <v>-0.03405756074642537</v>
       </c>
       <c r="C16">
-        <v>-0.05163435119717687</v>
+        <v>0.04682016588056305</v>
       </c>
       <c r="D16">
-        <v>0.03684376443659613</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.0513497719601742</v>
+      </c>
+      <c r="E16">
+        <v>-0.04323555030298779</v>
+      </c>
+      <c r="F16">
+        <v>-0.007746369203588997</v>
+      </c>
+      <c r="G16">
+        <v>-0.0315020588702633</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01777463373011503</v>
+        <v>-0.01314458938030015</v>
       </c>
       <c r="C19">
-        <v>-0.05038454038498751</v>
+        <v>0.03619254032264534</v>
       </c>
       <c r="D19">
-        <v>0.1195195325600925</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.114730755695227</v>
+      </c>
+      <c r="E19">
+        <v>-0.1123901612304882</v>
+      </c>
+      <c r="F19">
+        <v>-0.01945213205277354</v>
+      </c>
+      <c r="G19">
+        <v>-0.002296209250169437</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01993471160707733</v>
+        <v>-0.01577325451655199</v>
       </c>
       <c r="C20">
-        <v>-0.04928322096473525</v>
+        <v>0.0408407785730951</v>
       </c>
       <c r="D20">
-        <v>0.05506621302190269</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.07435760550387124</v>
+      </c>
+      <c r="E20">
+        <v>-0.08479344517803492</v>
+      </c>
+      <c r="F20">
+        <v>0.002935713484666631</v>
+      </c>
+      <c r="G20">
+        <v>-0.02153926236375972</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01618491876259731</v>
+        <v>-0.01411004465189578</v>
       </c>
       <c r="C21">
-        <v>-0.05091077935389499</v>
+        <v>0.04096883792234441</v>
       </c>
       <c r="D21">
-        <v>0.06413944068941892</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.1010796783022255</v>
+      </c>
+      <c r="E21">
+        <v>-0.1395847088769695</v>
+      </c>
+      <c r="F21">
+        <v>-0.007363971892680675</v>
+      </c>
+      <c r="G21">
+        <v>-0.06749879152015886</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.001240747103500138</v>
+        <v>-0.004819099469280951</v>
       </c>
       <c r="C22">
-        <v>-0.01263623674367251</v>
+        <v>0.03188190052922558</v>
       </c>
       <c r="D22">
-        <v>0.04020342357352562</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.09251614392252351</v>
+      </c>
+      <c r="E22">
+        <v>-0.05654795645955625</v>
+      </c>
+      <c r="F22">
+        <v>0.07062089039242912</v>
+      </c>
+      <c r="G22">
+        <v>0.05678061129054211</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.001253888550394301</v>
+        <v>-0.004946824192252823</v>
       </c>
       <c r="C23">
-        <v>-0.0125875755092582</v>
+        <v>0.03197170074960568</v>
       </c>
       <c r="D23">
-        <v>0.0399812913931973</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.09184676936321137</v>
+      </c>
+      <c r="E23">
+        <v>-0.0568546905315821</v>
+      </c>
+      <c r="F23">
+        <v>0.07069971128432884</v>
+      </c>
+      <c r="G23">
+        <v>0.05599277479402223</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03766246965019613</v>
+        <v>-0.03535200294402184</v>
       </c>
       <c r="C24">
-        <v>-0.05204031608428424</v>
+        <v>0.05497984278673322</v>
       </c>
       <c r="D24">
-        <v>0.04194336306768277</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.05461535075117252</v>
+      </c>
+      <c r="E24">
+        <v>-0.04535911628026724</v>
+      </c>
+      <c r="F24">
+        <v>-0.00399646871382097</v>
+      </c>
+      <c r="G24">
+        <v>-0.04764001115642329</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04736084654521992</v>
+        <v>-0.04124065239387306</v>
       </c>
       <c r="C25">
-        <v>-0.05755467074841235</v>
+        <v>0.05472871932927086</v>
       </c>
       <c r="D25">
-        <v>0.03998661584001943</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.05009062818634247</v>
+      </c>
+      <c r="E25">
+        <v>-0.03956335630377485</v>
+      </c>
+      <c r="F25">
+        <v>0.01237946284451742</v>
+      </c>
+      <c r="G25">
+        <v>-0.0491001567797123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02290651320909271</v>
+        <v>-0.01926892516149037</v>
       </c>
       <c r="C26">
-        <v>-0.0175518352472515</v>
+        <v>0.01876541530080922</v>
       </c>
       <c r="D26">
-        <v>0.03653571009693887</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.05566004465486228</v>
+      </c>
+      <c r="E26">
+        <v>-0.05221573457786968</v>
+      </c>
+      <c r="F26">
+        <v>-0.005648960683323794</v>
+      </c>
+      <c r="G26">
+        <v>-0.01010122297731498</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1312,226 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.1174003875949882</v>
+        <v>-0.1597676729166654</v>
       </c>
       <c r="C28">
-        <v>0.2595041202763986</v>
+        <v>-0.2559617594158073</v>
       </c>
       <c r="D28">
-        <v>-0.04684917158596017</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.03168659706415278</v>
+      </c>
+      <c r="E28">
+        <v>-0.08422053284264741</v>
+      </c>
+      <c r="F28">
+        <v>0.00839536066292116</v>
+      </c>
+      <c r="G28">
+        <v>-0.07537031782585375</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.009843298541471134</v>
+        <v>-0.008038454083560945</v>
       </c>
       <c r="C29">
-        <v>-0.02966372504371007</v>
+        <v>0.02627153202830445</v>
       </c>
       <c r="D29">
-        <v>0.02669766881757481</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.05746397264848484</v>
+      </c>
+      <c r="E29">
+        <v>-0.07232250373948716</v>
+      </c>
+      <c r="F29">
+        <v>0.008444741973740616</v>
+      </c>
+      <c r="G29">
+        <v>-0.0430676434607981</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.03910353182629117</v>
+        <v>-0.0405807791839231</v>
       </c>
       <c r="C30">
-        <v>-0.03753335246060923</v>
+        <v>0.05310831985944846</v>
       </c>
       <c r="D30">
-        <v>0.1214265089967884</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1517396054110284</v>
+      </c>
+      <c r="E30">
+        <v>-0.08010699616911361</v>
+      </c>
+      <c r="F30">
+        <v>-0.00174830717838771</v>
+      </c>
+      <c r="G30">
+        <v>0.02149827390484013</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.06801631720141767</v>
+        <v>-0.06270709099332311</v>
       </c>
       <c r="C31">
-        <v>-0.06365875038392863</v>
+        <v>0.07186211086695078</v>
       </c>
       <c r="D31">
-        <v>0.01666473669245963</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.03329854897045359</v>
+      </c>
+      <c r="E31">
+        <v>-0.06462664665712629</v>
+      </c>
+      <c r="F31">
+        <v>0.04671263989644332</v>
+      </c>
+      <c r="G31">
+        <v>-0.02884375093705688</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.00224439893483599</v>
+        <v>-0.006813247663948963</v>
       </c>
       <c r="C32">
-        <v>-0.02019628593124239</v>
+        <v>0.02493011041975756</v>
       </c>
       <c r="D32">
-        <v>0.04699514496779925</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.07102748881078189</v>
+      </c>
+      <c r="E32">
+        <v>-0.110557331204837</v>
+      </c>
+      <c r="F32">
+        <v>-0.005384903175786201</v>
+      </c>
+      <c r="G32">
+        <v>-0.06550669208500561</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.03166160677911001</v>
+        <v>-0.02641295584306406</v>
       </c>
       <c r="C33">
-        <v>-0.04757587967558575</v>
+        <v>0.04674885508288876</v>
       </c>
       <c r="D33">
-        <v>0.08997016841117143</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1108167926886442</v>
+      </c>
+      <c r="E33">
+        <v>-0.08891673577499121</v>
+      </c>
+      <c r="F33">
+        <v>0.02183697611135532</v>
+      </c>
+      <c r="G33">
+        <v>-0.04161199712093479</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04222814362720246</v>
+        <v>-0.03684643521018154</v>
       </c>
       <c r="C34">
-        <v>-0.06193098767521316</v>
+        <v>0.06186796104026478</v>
       </c>
       <c r="D34">
-        <v>0.05502735650893944</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.05674504674952316</v>
+      </c>
+      <c r="E34">
+        <v>-0.02107844096210743</v>
+      </c>
+      <c r="F34">
+        <v>-0.0004488378915535466</v>
+      </c>
+      <c r="G34">
+        <v>-0.05281164552359727</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-0.0002524690444477789</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.0001719035650615573</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.001452686052235194</v>
+      </c>
+      <c r="E35">
+        <v>-0.0002969154366937044</v>
+      </c>
+      <c r="F35">
+        <v>-0.0002969336153276222</v>
+      </c>
+      <c r="G35">
+        <v>-6.521022940963687e-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.02413412419609028</v>
+        <v>-0.01949480821847914</v>
       </c>
       <c r="C36">
-        <v>-0.02049618854280806</v>
+        <v>0.01685048263166806</v>
       </c>
       <c r="D36">
-        <v>0.03391938635672911</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.05927660153321205</v>
+      </c>
+      <c r="E36">
+        <v>-0.06532795393509166</v>
+      </c>
+      <c r="F36">
+        <v>0.005151484464790296</v>
+      </c>
+      <c r="G36">
+        <v>-0.03053167012187556</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03481329093797824</v>
+        <v>-0.02542851385955917</v>
       </c>
       <c r="C38">
-        <v>-0.0362831975563054</v>
+        <v>0.02617665940772162</v>
       </c>
       <c r="D38">
-        <v>0.01842372803387402</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.04818406745885603</v>
+      </c>
+      <c r="E38">
+        <v>-0.05131217954304287</v>
+      </c>
+      <c r="F38">
+        <v>0.005170094469542121</v>
+      </c>
+      <c r="G38">
+        <v>0.01523384620443793</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04704373412536973</v>
+        <v>-0.04149615900756726</v>
       </c>
       <c r="C39">
-        <v>-0.0600652992692015</v>
+        <v>0.06238817176524499</v>
       </c>
       <c r="D39">
-        <v>0.06227457727009163</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.08647032143648224</v>
+      </c>
+      <c r="E39">
+        <v>-0.04618812229742154</v>
+      </c>
+      <c r="F39">
+        <v>-0.02067346137632655</v>
+      </c>
+      <c r="G39">
+        <v>-0.03307950554178102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.00924257523221414</v>
+        <v>-0.01302050414863671</v>
       </c>
       <c r="C40">
-        <v>-0.05895413314728785</v>
+        <v>0.04256282261757419</v>
       </c>
       <c r="D40">
-        <v>0.04753344610418705</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.07105986799200595</v>
+      </c>
+      <c r="E40">
+        <v>-0.1071333707813251</v>
+      </c>
+      <c r="F40">
+        <v>0.04314235805432275</v>
+      </c>
+      <c r="G40">
+        <v>-0.02188381858257893</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02735897298177757</v>
+        <v>-0.02218114407168112</v>
       </c>
       <c r="C41">
-        <v>-0.01357073181963109</v>
+        <v>0.0109938684615368</v>
       </c>
       <c r="D41">
-        <v>0.03030649365544118</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.04018678968863212</v>
+      </c>
+      <c r="E41">
+        <v>-0.07464937244576962</v>
+      </c>
+      <c r="F41">
+        <v>0.007078140676021857</v>
+      </c>
+      <c r="G41">
+        <v>-0.02130888830167301</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.04230555627413586</v>
+        <v>-0.02855907295895585</v>
       </c>
       <c r="C43">
-        <v>-0.03289689956472675</v>
+        <v>0.02335082903860598</v>
       </c>
       <c r="D43">
-        <v>0.06138095251081242</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.07124676254670044</v>
+      </c>
+      <c r="E43">
+        <v>-0.07713970769829868</v>
+      </c>
+      <c r="F43">
+        <v>0.01814661323529982</v>
+      </c>
+      <c r="G43">
+        <v>-0.03281413856711678</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01411072274584972</v>
+        <v>-0.01716473412096665</v>
       </c>
       <c r="C44">
-        <v>-0.06318890987655663</v>
+        <v>0.04607555433642514</v>
       </c>
       <c r="D44">
-        <v>0.03898510363774178</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.0706150606537233</v>
+      </c>
+      <c r="E44">
+        <v>-0.09611660851214752</v>
+      </c>
+      <c r="F44">
+        <v>-0.01008739168531697</v>
+      </c>
+      <c r="G44">
+        <v>-0.03102310620679403</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01773475242931983</v>
+        <v>-0.01553200222608696</v>
       </c>
       <c r="C46">
-        <v>-0.03170235358459385</v>
+        <v>0.03197738640798269</v>
       </c>
       <c r="D46">
-        <v>0.02647302874719781</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.05505000914529436</v>
+      </c>
+      <c r="E46">
+        <v>-0.07814172962903448</v>
+      </c>
+      <c r="F46">
+        <v>-0.007966694658328551</v>
+      </c>
+      <c r="G46">
+        <v>-0.05978693483084728</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.09308191387853226</v>
+        <v>-0.09239567920964717</v>
       </c>
       <c r="C47">
-        <v>-0.08693725677310764</v>
+        <v>0.09073694158183138</v>
       </c>
       <c r="D47">
-        <v>-0.004364104601428162</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01211217756920695</v>
+      </c>
+      <c r="E47">
+        <v>-0.05698972867565769</v>
+      </c>
+      <c r="F47">
+        <v>0.03062320002457776</v>
+      </c>
+      <c r="G47">
+        <v>-0.06125818108247989</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.02816868457990819</v>
+        <v>-0.02225438320830583</v>
       </c>
       <c r="C48">
-        <v>-0.02288083920151977</v>
+        <v>0.02171404102376031</v>
       </c>
       <c r="D48">
-        <v>0.02425488914137206</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.05401770903597064</v>
+      </c>
+      <c r="E48">
+        <v>-0.07757933393900607</v>
+      </c>
+      <c r="F48">
+        <v>-0.003768454030663642</v>
+      </c>
+      <c r="G48">
+        <v>-0.03691270671389849</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08498568702639987</v>
+        <v>-0.07219669043832898</v>
       </c>
       <c r="C50">
-        <v>-0.1023527469133953</v>
+        <v>0.08151342171764213</v>
       </c>
       <c r="D50">
-        <v>0.007792206696938657</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.03611165730736461</v>
+      </c>
+      <c r="E50">
+        <v>-0.0772194191747632</v>
+      </c>
+      <c r="F50">
+        <v>0.04946415533394983</v>
+      </c>
+      <c r="G50">
+        <v>-0.01335277705573298</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01514120431088447</v>
+        <v>-0.01253975561200239</v>
       </c>
       <c r="C51">
-        <v>-0.03807436999909573</v>
+        <v>0.02382017155536974</v>
       </c>
       <c r="D51">
-        <v>0.08175295526738072</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.08479198395683586</v>
+      </c>
+      <c r="E51">
+        <v>-0.05630339677708584</v>
+      </c>
+      <c r="F51">
+        <v>-0.004437702320320007</v>
+      </c>
+      <c r="G51">
+        <v>-0.01351519264271482</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08023035758401111</v>
+        <v>-0.09540290141041671</v>
       </c>
       <c r="C53">
-        <v>-0.09481821071346436</v>
+        <v>0.09835022099319042</v>
       </c>
       <c r="D53">
-        <v>-0.0300638047931203</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.02723586525066424</v>
+      </c>
+      <c r="E53">
+        <v>-0.09443507746262696</v>
+      </c>
+      <c r="F53">
+        <v>0.02803859148967073</v>
+      </c>
+      <c r="G53">
+        <v>-0.07681149601789795</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.04299161543751544</v>
+        <v>-0.03303155458834581</v>
       </c>
       <c r="C54">
-        <v>-0.03539633598907565</v>
+        <v>0.03319272384002367</v>
       </c>
       <c r="D54">
-        <v>0.04218122443406994</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.06692995064676509</v>
+      </c>
+      <c r="E54">
+        <v>-0.07561600005424567</v>
+      </c>
+      <c r="F54">
+        <v>-0.00217163128423259</v>
+      </c>
+      <c r="G54">
+        <v>-0.0363230940009797</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.08630821191912143</v>
+        <v>-0.09301716187450738</v>
       </c>
       <c r="C55">
-        <v>-0.0735634903478378</v>
+        <v>0.08047581672557806</v>
       </c>
       <c r="D55">
-        <v>-0.02885587080679493</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.02672376824709431</v>
+      </c>
+      <c r="E55">
+        <v>-0.0541937460955088</v>
+      </c>
+      <c r="F55">
+        <v>0.03359236949229154</v>
+      </c>
+      <c r="G55">
+        <v>-0.03259109492938568</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1443858944092408</v>
+        <v>-0.1489301692175708</v>
       </c>
       <c r="C56">
-        <v>-0.1032892409489549</v>
+        <v>0.1158727057088782</v>
       </c>
       <c r="D56">
-        <v>-0.03325674674021013</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.03486725821605149</v>
+      </c>
+      <c r="E56">
+        <v>-0.04756136704028244</v>
+      </c>
+      <c r="F56">
+        <v>0.02656010681086058</v>
+      </c>
+      <c r="G56">
+        <v>-0.04694757251620945</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.04647948133410687</v>
+        <v>-0.0374212025528254</v>
       </c>
       <c r="C58">
-        <v>0.01603121109015888</v>
+        <v>0.00850346907448391</v>
       </c>
       <c r="D58">
-        <v>0.3222106347440915</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.3307843040565528</v>
+      </c>
+      <c r="E58">
+        <v>-0.2782081335482947</v>
+      </c>
+      <c r="F58">
+        <v>0.122331776940576</v>
+      </c>
+      <c r="G58">
+        <v>0.5016753373230401</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1402601575484974</v>
+        <v>-0.1555010019113946</v>
       </c>
       <c r="C59">
-        <v>0.2005947831228519</v>
+        <v>-0.1858492524708792</v>
       </c>
       <c r="D59">
-        <v>0.01498930822149186</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.03390230372526969</v>
+      </c>
+      <c r="E59">
+        <v>-0.03056001556510011</v>
+      </c>
+      <c r="F59">
+        <v>-0.03122008604273568</v>
+      </c>
+      <c r="G59">
+        <v>0.01611634197299722</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.2574333525239304</v>
+        <v>-0.2389067207498929</v>
       </c>
       <c r="C60">
-        <v>-0.07232248291837949</v>
+        <v>0.08030923709770101</v>
       </c>
       <c r="D60">
-        <v>0.2055641442250102</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.1856359908585374</v>
+      </c>
+      <c r="E60">
+        <v>0.2977698143807635</v>
+      </c>
+      <c r="F60">
+        <v>0.09905639858316607</v>
+      </c>
+      <c r="G60">
+        <v>0.01923184451796447</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04857420591793453</v>
+        <v>-0.04352030806354102</v>
       </c>
       <c r="C61">
-        <v>-0.05647672373625044</v>
+        <v>0.05616353596240119</v>
       </c>
       <c r="D61">
-        <v>0.06522428612376788</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.07485712757129359</v>
+      </c>
+      <c r="E61">
+        <v>-0.04853968360723723</v>
+      </c>
+      <c r="F61">
+        <v>-0.002573175834278847</v>
+      </c>
+      <c r="G61">
+        <v>-0.04694332030241462</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01678206909825777</v>
+        <v>-0.0166138441643768</v>
       </c>
       <c r="C63">
-        <v>-0.03047377727932369</v>
+        <v>0.02936110116068188</v>
       </c>
       <c r="D63">
-        <v>0.0138412308179655</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.04773831114558669</v>
+      </c>
+      <c r="E63">
+        <v>-0.07407085651067878</v>
+      </c>
+      <c r="F63">
+        <v>0.02606308890050265</v>
+      </c>
+      <c r="G63">
+        <v>-0.02100642973006498</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.05646288032232003</v>
+        <v>-0.05846231862805377</v>
       </c>
       <c r="C64">
-        <v>-0.05510289478867291</v>
+        <v>0.06856552803625261</v>
       </c>
       <c r="D64">
-        <v>0.0477559581973638</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.04674151516590201</v>
+      </c>
+      <c r="E64">
+        <v>-0.0430177685298827</v>
+      </c>
+      <c r="F64">
+        <v>-0.01832405834354938</v>
+      </c>
+      <c r="G64">
+        <v>-0.07261025628756418</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.07231689639184899</v>
+        <v>-0.05985167622619034</v>
       </c>
       <c r="C65">
-        <v>-0.02330105038770659</v>
+        <v>0.02307110960917402</v>
       </c>
       <c r="D65">
-        <v>0.08562128421746361</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.1128243978453277</v>
+      </c>
+      <c r="E65">
+        <v>-0.03253624178827015</v>
+      </c>
+      <c r="F65">
+        <v>0.02929763345266316</v>
+      </c>
+      <c r="G65">
+        <v>0.03717317915349883</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.05545358639557839</v>
+        <v>-0.05021112723224345</v>
       </c>
       <c r="C66">
-        <v>-0.0660313162651414</v>
+        <v>0.06994442584224833</v>
       </c>
       <c r="D66">
-        <v>0.0842444827554112</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.10664332867707</v>
+      </c>
+      <c r="E66">
+        <v>-0.05541810317235636</v>
+      </c>
+      <c r="F66">
+        <v>-0.001290116919512437</v>
+      </c>
+      <c r="G66">
+        <v>-0.02427372325643018</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05577808626346352</v>
+        <v>-0.04470146542353901</v>
       </c>
       <c r="C67">
-        <v>-0.03882961154594793</v>
+        <v>0.03027422575286762</v>
       </c>
       <c r="D67">
-        <v>0.002897815255613225</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.0203299446427155</v>
+      </c>
+      <c r="E67">
+        <v>-0.02528754186228451</v>
+      </c>
+      <c r="F67">
+        <v>0.006656785346835069</v>
+      </c>
+      <c r="G67">
+        <v>0.007221619456740266</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1486398964394492</v>
+        <v>-0.1663268806649898</v>
       </c>
       <c r="C68">
-        <v>0.2770079432263019</v>
+        <v>-0.2348684498522162</v>
       </c>
       <c r="D68">
-        <v>-0.05746402399038371</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01681699110421259</v>
+      </c>
+      <c r="E68">
+        <v>-0.0600062199435013</v>
+      </c>
+      <c r="F68">
+        <v>0.02480471648330398</v>
+      </c>
+      <c r="G68">
+        <v>0.01109701744032354</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.09334516833602291</v>
+        <v>-0.08722729207409843</v>
       </c>
       <c r="C69">
-        <v>-0.09568939014552413</v>
+        <v>0.1016295449932185</v>
       </c>
       <c r="D69">
-        <v>-0.0004589199899622303</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.02557997679062598</v>
+      </c>
+      <c r="E69">
+        <v>-0.05678811051291015</v>
+      </c>
+      <c r="F69">
+        <v>0.008700400356852002</v>
+      </c>
+      <c r="G69">
+        <v>-0.05593127380742416</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1359660660547536</v>
+        <v>-0.1597115859447682</v>
       </c>
       <c r="C71">
-        <v>0.2465890934036668</v>
+        <v>-0.2310789749934224</v>
       </c>
       <c r="D71">
-        <v>-0.001582439344028767</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.01257810871163549</v>
+      </c>
+      <c r="E71">
+        <v>-0.07075420841862419</v>
+      </c>
+      <c r="F71">
+        <v>0.028511925391845</v>
+      </c>
+      <c r="G71">
+        <v>-0.0512440963629079</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.0952870892340268</v>
+        <v>-0.1013063370408819</v>
       </c>
       <c r="C72">
-        <v>-0.056952133465045</v>
+        <v>0.05633931053306781</v>
       </c>
       <c r="D72">
-        <v>0.05339124436044263</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.07254418181390394</v>
+      </c>
+      <c r="E72">
+        <v>-0.01575118270237498</v>
+      </c>
+      <c r="F72">
+        <v>0.0287153826930782</v>
+      </c>
+      <c r="G72">
+        <v>-0.05603659740308304</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.3349961243900846</v>
+        <v>-0.2911965404841718</v>
       </c>
       <c r="C73">
-        <v>0.01464189634970501</v>
+        <v>0.03635777981114033</v>
       </c>
       <c r="D73">
-        <v>0.468701245898233</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.3793510343377155</v>
+      </c>
+      <c r="E73">
+        <v>0.618622019288758</v>
+      </c>
+      <c r="F73">
+        <v>0.1047802103534162</v>
+      </c>
+      <c r="G73">
+        <v>0.06080934907733099</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1006795322772974</v>
+        <v>-0.106164677945044</v>
       </c>
       <c r="C74">
-        <v>-0.09752123191574792</v>
+        <v>0.09563832089965456</v>
       </c>
       <c r="D74">
-        <v>-0.01303135083910726</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.02712108670373071</v>
+      </c>
+      <c r="E74">
+        <v>-0.07077147301079548</v>
+      </c>
+      <c r="F74">
+        <v>0.05076234865665998</v>
+      </c>
+      <c r="G74">
+        <v>-0.03134303412313449</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2516333105688031</v>
+        <v>-0.2528782983692272</v>
       </c>
       <c r="C75">
-        <v>-0.1265494399703625</v>
+        <v>0.1455958575871255</v>
       </c>
       <c r="D75">
-        <v>-0.1348844471269314</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1420811758912663</v>
+      </c>
+      <c r="E75">
+        <v>-0.0387421908484968</v>
+      </c>
+      <c r="F75">
+        <v>-0.004969292592159176</v>
+      </c>
+      <c r="G75">
+        <v>-0.03190333066661844</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1113105813258421</v>
+        <v>-0.1259699193630624</v>
       </c>
       <c r="C76">
-        <v>-0.09999022159288509</v>
+        <v>0.1038017578930479</v>
       </c>
       <c r="D76">
-        <v>-0.05019399213844811</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.04667100051863411</v>
+      </c>
+      <c r="E76">
+        <v>-0.1028329049996025</v>
+      </c>
+      <c r="F76">
+        <v>0.008986563174847452</v>
+      </c>
+      <c r="G76">
+        <v>-0.04613006529336042</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.08557262451149547</v>
+        <v>-0.06818955717428735</v>
       </c>
       <c r="C77">
-        <v>-0.03364522270109598</v>
+        <v>0.05903686987872776</v>
       </c>
       <c r="D77">
-        <v>0.08719010499509416</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1112288618541078</v>
+      </c>
+      <c r="E77">
+        <v>-0.1121762559002174</v>
+      </c>
+      <c r="F77">
+        <v>-0.2560093839044207</v>
+      </c>
+      <c r="G77">
+        <v>0.1438269954044097</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04450812859898546</v>
+        <v>-0.04560389783654392</v>
       </c>
       <c r="C78">
-        <v>-0.03947252252547395</v>
+        <v>0.05614202497717778</v>
       </c>
       <c r="D78">
-        <v>0.0822406391857176</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.113484140578226</v>
+      </c>
+      <c r="E78">
+        <v>-0.05708377477490988</v>
+      </c>
+      <c r="F78">
+        <v>0.00314503067155242</v>
+      </c>
+      <c r="G78">
+        <v>-0.03539069668417147</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.002400903957837637</v>
+        <v>-0.03814656284014249</v>
       </c>
       <c r="C79">
-        <v>0.002508322614463402</v>
+        <v>0.06524506638697182</v>
       </c>
       <c r="D79">
-        <v>0.008741694124862372</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.06671419095316727</v>
+      </c>
+      <c r="E79">
+        <v>-0.09770316490116501</v>
+      </c>
+      <c r="F79">
+        <v>0.05624098400593288</v>
+      </c>
+      <c r="G79">
+        <v>-0.2913094984475431</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.0342549615831186</v>
+        <v>-0.02818936817968959</v>
       </c>
       <c r="C80">
-        <v>-0.03848511690610863</v>
+        <v>0.04156681036563184</v>
       </c>
       <c r="D80">
-        <v>0.032470790870625</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.03873505102174229</v>
+      </c>
+      <c r="E80">
+        <v>-0.01562659875218343</v>
+      </c>
+      <c r="F80">
+        <v>-0.04696367804967896</v>
+      </c>
+      <c r="G80">
+        <v>0.008464932152225048</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1481556338841032</v>
+        <v>-0.1405483989339969</v>
       </c>
       <c r="C81">
-        <v>-0.1085071018716599</v>
+        <v>0.1122351900738659</v>
       </c>
       <c r="D81">
-        <v>-0.0964171194349368</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.09770987312300172</v>
+      </c>
+      <c r="E81">
+        <v>-0.08367193005475497</v>
+      </c>
+      <c r="F81">
+        <v>0.008620463293943914</v>
+      </c>
+      <c r="G81">
+        <v>-0.04021474506620475</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.23031684206001</v>
+        <v>-0.2418752994658346</v>
       </c>
       <c r="C82">
-        <v>-0.164570456174278</v>
+        <v>0.2073113888584621</v>
       </c>
       <c r="D82">
-        <v>-0.1587741563259738</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2193395442043772</v>
+      </c>
+      <c r="E82">
+        <v>0.0822936619415895</v>
+      </c>
+      <c r="F82">
+        <v>-0.04192680550652365</v>
+      </c>
+      <c r="G82">
+        <v>-0.3663586583772885</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.04124547314820645</v>
+        <v>-0.02701914320854724</v>
       </c>
       <c r="C83">
-        <v>-0.04192493966041267</v>
+        <v>0.04889917708133245</v>
       </c>
       <c r="D83">
-        <v>0.07042851850555799</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.04937546550107206</v>
+      </c>
+      <c r="E83">
+        <v>-0.0191182673531096</v>
+      </c>
+      <c r="F83">
+        <v>-0.02084913180163231</v>
+      </c>
+      <c r="G83">
+        <v>0.003737739705094743</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>5.622795127568388e-06</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.002699983216594115</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.002267065634305069</v>
+      </c>
+      <c r="E84">
+        <v>-0.008920764136334932</v>
+      </c>
+      <c r="F84">
+        <v>0.003020785496042751</v>
+      </c>
+      <c r="G84">
+        <v>0.007937480816481419</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.1922034194163235</v>
+        <v>-0.1808163580452225</v>
       </c>
       <c r="C85">
-        <v>-0.1063740593933213</v>
+        <v>0.1179939549430386</v>
       </c>
       <c r="D85">
-        <v>-0.1326187952839459</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1218599125624684</v>
+      </c>
+      <c r="E85">
+        <v>-0.02591958692818235</v>
+      </c>
+      <c r="F85">
+        <v>0.04060449487113136</v>
+      </c>
+      <c r="G85">
+        <v>-0.08647936983705122</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01126786538195474</v>
+        <v>-0.01582449371731662</v>
       </c>
       <c r="C86">
-        <v>-0.02479315990724735</v>
+        <v>0.01406974612217841</v>
       </c>
       <c r="D86">
-        <v>0.1049465403019984</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.09966426354497548</v>
+      </c>
+      <c r="E86">
+        <v>-0.0681018720593471</v>
+      </c>
+      <c r="F86">
+        <v>-0.01227712444296893</v>
+      </c>
+      <c r="G86">
+        <v>-0.04647644537312128</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.03516106792702996</v>
+        <v>-0.03458879948947698</v>
       </c>
       <c r="C87">
-        <v>0.004211481676065765</v>
+        <v>0.01569535727223126</v>
       </c>
       <c r="D87">
-        <v>0.1032963633440629</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.1293535870906389</v>
+      </c>
+      <c r="E87">
+        <v>-0.1111321725059504</v>
+      </c>
+      <c r="F87">
+        <v>-0.05252813884128667</v>
+      </c>
+      <c r="G87">
+        <v>0.03545184319285512</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1014342206757713</v>
+        <v>-0.0861533420078904</v>
       </c>
       <c r="C88">
-        <v>-0.08685403837972326</v>
+        <v>0.06889702040322698</v>
       </c>
       <c r="D88">
-        <v>0.005564873539252428</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01873401026196657</v>
+      </c>
+      <c r="E88">
+        <v>-0.05683277317012498</v>
+      </c>
+      <c r="F88">
+        <v>0.01407752284336084</v>
+      </c>
+      <c r="G88">
+        <v>-0.04012494960036401</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.2108793412341902</v>
+        <v>-0.2405632763361875</v>
       </c>
       <c r="C89">
-        <v>0.3556908603228838</v>
+        <v>-0.364433501098013</v>
       </c>
       <c r="D89">
-        <v>-0.06955313399823286</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.02479982004282126</v>
+      </c>
+      <c r="E89">
+        <v>-0.09478637262911316</v>
+      </c>
+      <c r="F89">
+        <v>-0.06014283143425934</v>
+      </c>
+      <c r="G89">
+        <v>-0.0360994243612169</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.2027650719217122</v>
+        <v>-0.2194455927005779</v>
       </c>
       <c r="C90">
-        <v>0.3028156577211244</v>
+        <v>-0.2875492917389851</v>
       </c>
       <c r="D90">
-        <v>-0.04658211977906244</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.002834934301228121</v>
+      </c>
+      <c r="E90">
+        <v>-0.06001017591764524</v>
+      </c>
+      <c r="F90">
+        <v>0.01665826199250997</v>
+      </c>
+      <c r="G90">
+        <v>0.01637904692940225</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.189187278535949</v>
+        <v>-0.1827783161323649</v>
       </c>
       <c r="C91">
-        <v>-0.1637586238017623</v>
+        <v>0.1641730704650127</v>
       </c>
       <c r="D91">
-        <v>-0.09820828777278405</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1042597690406711</v>
+      </c>
+      <c r="E91">
+        <v>-0.06659801433933446</v>
+      </c>
+      <c r="F91">
+        <v>0.01918255990389444</v>
+      </c>
+      <c r="G91">
+        <v>-0.036228855737896</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1835274119537644</v>
+        <v>-0.1977934156554793</v>
       </c>
       <c r="C92">
-        <v>0.2629094577232126</v>
+        <v>-0.2803778798296663</v>
       </c>
       <c r="D92">
-        <v>-0.01006473226670826</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.005760007370732277</v>
+      </c>
+      <c r="E92">
+        <v>-0.08175199502816212</v>
+      </c>
+      <c r="F92">
+        <v>-0.03232003186808453</v>
+      </c>
+      <c r="G92">
+        <v>-0.03890855847209521</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.2229678211727914</v>
+        <v>-0.2368850373718337</v>
       </c>
       <c r="C93">
-        <v>0.3090108713435425</v>
+        <v>-0.2980956813681322</v>
       </c>
       <c r="D93">
-        <v>-0.04710002206652812</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01849155852267884</v>
+      </c>
+      <c r="E93">
+        <v>-0.04460916264606427</v>
+      </c>
+      <c r="F93">
+        <v>0.02512044189985843</v>
+      </c>
+      <c r="G93">
+        <v>-0.02872119459214261</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3625195396889176</v>
+        <v>-0.3452500670324414</v>
       </c>
       <c r="C94">
-        <v>-0.2202560830490296</v>
+        <v>0.2241989733804557</v>
       </c>
       <c r="D94">
-        <v>-0.5019156878514029</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4430995916201349</v>
+      </c>
+      <c r="E94">
+        <v>-0.005174033887433432</v>
+      </c>
+      <c r="F94">
+        <v>-0.06381540530195193</v>
+      </c>
+      <c r="G94">
+        <v>0.6121598985014799</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.09058724496376712</v>
+        <v>-0.06822248207949781</v>
       </c>
       <c r="C95">
-        <v>0.01126704945144241</v>
+        <v>0.03530493337197697</v>
       </c>
       <c r="D95">
-        <v>0.1593089840244822</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1504069506104957</v>
+      </c>
+      <c r="E95">
+        <v>0.06355572798824102</v>
+      </c>
+      <c r="F95">
+        <v>-0.9127666886664911</v>
+      </c>
+      <c r="G95">
+        <v>-0.01934263765391431</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1781861520554061</v>
+        <v>-0.176169416749635</v>
       </c>
       <c r="C98">
-        <v>-0.0112264668303809</v>
+        <v>0.04279735368776523</v>
       </c>
       <c r="D98">
-        <v>0.2276812996337708</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1990028802008222</v>
+      </c>
+      <c r="E98">
+        <v>0.2342842596363667</v>
+      </c>
+      <c r="F98">
+        <v>0.07790991318429139</v>
+      </c>
+      <c r="G98">
+        <v>-0.01323107994487169</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.009703012027625881</v>
+        <v>-0.00815378593624809</v>
       </c>
       <c r="C101">
-        <v>-0.02903507295816718</v>
+        <v>0.02539493852263605</v>
       </c>
       <c r="D101">
-        <v>0.02644866754701738</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.05727428265939184</v>
+      </c>
+      <c r="E101">
+        <v>-0.07328993197060475</v>
+      </c>
+      <c r="F101">
+        <v>0.007449204265604187</v>
+      </c>
+      <c r="G101">
+        <v>-0.04365663598320598</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1208078707005251</v>
+        <v>-0.1197971342080097</v>
       </c>
       <c r="C102">
-        <v>-0.08824317270518101</v>
+        <v>0.1133603679443399</v>
       </c>
       <c r="D102">
-        <v>-0.0301738060652465</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.04415204187035779</v>
+      </c>
+      <c r="E102">
+        <v>0.001783590122041248</v>
+      </c>
+      <c r="F102">
+        <v>-0.02630471702615353</v>
+      </c>
+      <c r="G102">
+        <v>-0.05121344525885141</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
